--- a/Funcao_SE_Aninhada.xlsx
+++ b/Funcao_SE_Aninhada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Codigos\Excel projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergio\Documents\Excel_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A204FD-F54B-4EA4-9770-EB36937FA735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BDCFBB-5D3E-4C5E-964D-A8A174CE81A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F45C004D-D8DE-40A4-BA90-2773ADBACBA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F45C004D-D8DE-40A4-BA90-2773ADBACBA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -522,7 +566,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,8 +802,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Reprovado">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Reprovado">
       <formula>NOT(ISERROR(SEARCH("Reprovado",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Aprovado">
+      <formula>NOT(ISERROR(SEARCH("Aprovado",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Aprovado">
+      <formula>NOT(ISERROR(SEARCH("Aprovado",A16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
